--- a/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
+++ b/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="287">
   <si>
     <t>Player Dialogs</t>
   </si>
@@ -41,148 +41,175 @@
     <t>Agree</t>
   </si>
   <si>
+    <t>IPC</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>IPCAvoiding</t>
+  </si>
+  <si>
+    <t>Avoiding</t>
+  </si>
+  <si>
     <t>Disagree</t>
   </si>
   <si>
+    <t>IPCCompeting</t>
+  </si>
+  <si>
+    <t>Competing</t>
+  </si>
+  <si>
     <t>InterviewIntro</t>
   </si>
   <si>
     <t>IPCAccomodating</t>
   </si>
   <si>
+    <t>Accomodating</t>
+  </si>
+  <si>
     <t>IPCNP5</t>
   </si>
   <si>
+    <t>IPCCollaborating</t>
+  </si>
+  <si>
+    <t>Collaborating</t>
+  </si>
+  <si>
+    <t>IPCNP1</t>
+  </si>
+  <si>
     <t>IPCNP6</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>Laissez-faire</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAccomodating</t>
   </si>
   <si>
     <t>IPCNP51</t>
   </si>
   <si>
+    <t>IPCAvoidingAccomodating</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAccomodating2</t>
   </si>
   <si>
+    <t>IPCNP11</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccomodatingAccomodating</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAccomodating2Response</t>
   </si>
   <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>IPCAvoiding</t>
-  </si>
-  <si>
-    <t>Avoiding</t>
-  </si>
-  <si>
-    <t>IPCCompeting</t>
-  </si>
-  <si>
-    <t>Competing</t>
-  </si>
-  <si>
-    <t>Accomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaborating</t>
-  </si>
-  <si>
-    <t>Collaborating</t>
-  </si>
-  <si>
-    <t>IPCNP1</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>Laissez-faire</t>
+    <t>MoodChange(2)</t>
+  </si>
+  <si>
+    <t>Transformational</t>
   </si>
   <si>
     <t>IPCAccomodatingAccomodatingAccomodating</t>
   </si>
   <si>
-    <t>IPCAvoidingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCNP11</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>Transformational</t>
-  </si>
-  <si>
     <t>IPCAvoidingAccomodatingAvoiding</t>
   </si>
   <si>
+    <t>IPCAccomodatingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(3)</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAccomodatingCompromising</t>
+  </si>
+  <si>
     <t>IPCNP2</t>
   </si>
   <si>
+    <t>IPCAccomodatingAccomodatingCompromisingResponse</t>
+  </si>
+  <si>
     <t>IPCAvoidingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodatingAccomodatingResponse</t>
+    <t>MoodChange(4)</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCNP52</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1)</t>
   </si>
   <si>
     <t>IPCNP21</t>
   </si>
   <si>
+    <t>IPCAccomodatingAvoidingAvoiding</t>
+  </si>
+  <si>
     <t>IPCAvoidingCompetingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodatingCompromising</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAccomodatingCompromisingResponse</t>
+    <t>IPCAccomodatingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-1)</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCNP61</t>
   </si>
   <si>
     <t>IPCAvoidingCompetingAvoiding</t>
   </si>
   <si>
-    <t>IPCAccomodatingAvoiding</t>
+    <t>IPCAccomodatingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCNP612</t>
   </si>
   <si>
     <t>IPCNP22</t>
   </si>
   <si>
-    <t>IPCNP52</t>
-  </si>
-  <si>
     <t>IPCAvoidingAvoidingAvoiding</t>
   </si>
   <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(5)</t>
+  </si>
+  <si>
     <t>IPCAvoidingAvoidingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingAvoidingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCNP61</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCNP612</t>
+    <t>IPCAccomodatingCollaboratingAccomodatingCompromising</t>
   </si>
   <si>
     <t>IPCNP3</t>
@@ -191,42 +218,51 @@
     <t>IPCCompetingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingAccomodatingResponse</t>
+    <t>IPCAccomodatingCollaboratingAccomodatingCompromisingResponse</t>
   </si>
   <si>
     <t>IPCCompetingCollaborating</t>
   </si>
   <si>
+    <t>MoodChange(6)</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaborating</t>
+  </si>
+  <si>
     <t>IPCNP31</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingCompromising</t>
+    <t>IPCNP611</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingCompromisingResponse</t>
+    <t>IPCAccomodatingCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingCollaborating</t>
+    <t>IPCAccomodatingCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(7)</t>
   </si>
   <si>
     <t>IPCNP311</t>
   </si>
   <si>
-    <t>IPCNP611</t>
+    <t>IPCAccomodatingCollaboratingCollaboratingCompromising</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
+    <t>IPCAccomodatingCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
     <t>IPCCompetingCollaboratingCollaboratingCompromising</t>
   </si>
   <si>
@@ -242,42 +278,60 @@
     <t>IPCCompetingCompeting2</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
     <t>IPCNP41</t>
   </si>
   <si>
     <t>IPCCompetingAvoidingAvoiding</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCollaboratingResponse</t>
+    <t>IPCAvoidingAccomodatingAccomodatingResponse</t>
   </si>
   <si>
     <t>IPCCompetingAvoidingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
     <t>IPCAvoidingAccomodatingAvoidingResponse</t>
   </si>
   <si>
     <t>IPCAvoidingAvoidingResponse</t>
   </si>
   <si>
+    <t>MoodChange(-2)</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-3)</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-4)</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-5)</t>
+  </si>
+  <si>
+    <t>IPCNP7</t>
+  </si>
+  <si>
+    <t>IPCNP8</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingAccomodating</t>
+  </si>
+  <si>
     <t>Transactional</t>
   </si>
   <si>
-    <t>IPCNP7</t>
-  </si>
-  <si>
     <t>IPCCollaboratingCollaborating</t>
   </si>
   <si>
@@ -299,21 +353,9 @@
     <t>IPCCollaboratingCompetingCollaborating</t>
   </si>
   <si>
-    <t>IPCAvoidingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
     <t>IPCCollaboratingCompetingCompeting</t>
   </si>
   <si>
-    <t>IPCNP8</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingCompetingResponse</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccomodating</t>
-  </si>
-  <si>
     <t>IPCCollaboratingCollaborating2</t>
   </si>
   <si>
@@ -323,15 +365,9 @@
     <t>IPCCollaboratingCollaboratingAccomodating</t>
   </si>
   <si>
-    <t>IPCAvoidingCompetingAvoidingResponse</t>
-  </si>
-  <si>
     <t>IPCCollaboratingCollaborating2Collaborating</t>
   </si>
   <si>
-    <t>IPCAvoidingCompetingCompetingResponse</t>
-  </si>
-  <si>
     <t>IPCNP811</t>
   </si>
   <si>
@@ -410,6 +446,9 @@
     <t>NotPickedAccomodatingCollaboratingAccomodating</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>NotPickedAccomodatingCollaboratingCollaborating</t>
   </si>
   <si>
@@ -419,10 +458,13 @@
     <t>NotPickedCollaboratingAccomodating</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCollaboratingAccomodatingResponse</t>
+    <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
   </si>
   <si>
     <t>NotPickedNP41</t>
@@ -431,13 +473,13 @@
     <t>NotPickedCollaboratingCollaboratingAccomodating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
+    <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
     <t>NotPickedCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
+    <t>IPCCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
     <t>OO</t>
@@ -446,21 +488,21 @@
     <t>OOAccomodating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
     <t>OOAvoiding</t>
   </si>
   <si>
     <t>OOCollaborating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCollaboratingCompromisingResponse</t>
+    <t>IPCCollaboratingCompetingCollaboratingResponse</t>
   </si>
   <si>
     <t>OOCompeting</t>
   </si>
   <si>
+    <t>IPCCollaboratingCompetingCompetingResponse</t>
+  </si>
+  <si>
     <t>OONP1</t>
   </si>
   <si>
@@ -470,27 +512,27 @@
     <t>OOAvoidingAvoiding</t>
   </si>
   <si>
-    <t>IPCCollaboratingCompetingCollaboratingResponse</t>
-  </si>
-  <si>
     <t>OONP11</t>
   </si>
   <si>
     <t>OOAvoidingAccomodatingAccomodating</t>
   </si>
   <si>
-    <t>IPCCollaboratingCompetingCompetingResponse</t>
-  </si>
-  <si>
     <t>OOAvoidingAccomodatingAvoiding</t>
   </si>
   <si>
+    <t>IPCCompetingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
     <t>OONP2</t>
   </si>
   <si>
     <t>OOCompetingCollaborating</t>
   </si>
   <si>
+    <t>IPCCompetingAvoidingCompetingResponse</t>
+  </si>
+  <si>
     <t>OOCompetingCompeting</t>
   </si>
   <si>
@@ -500,13 +542,10 @@
     <t>OOCompetingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCompetingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
     <t>OOCompetingCollaboratingCompeting</t>
   </si>
   <si>
-    <t>IPCCompetingAvoidingCompetingResponse</t>
+    <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
     <t>OONP3</t>
@@ -515,46 +554,52 @@
     <t>OOAccomodatingAccomodating</t>
   </si>
   <si>
+    <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
     <t>OOAccomodatingAvoiding</t>
   </si>
   <si>
+    <t>IPCCompetingCollaboratingCompetingResponse</t>
+  </si>
+  <si>
     <t>OONP31</t>
   </si>
   <si>
     <t>OOAccomodatingAvoidingAccomodating</t>
   </si>
   <si>
+    <t>IPCCompetingCompetingResponse</t>
+  </si>
+  <si>
     <t>OOAccomodatingAvoidingAvoiding</t>
   </si>
   <si>
     <t>OONP4</t>
   </si>
   <si>
+    <t>IPCCompetingCompeting2Response</t>
+  </si>
+  <si>
     <t>OOCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
+    <t>Neither</t>
   </si>
   <si>
     <t>OOCollaboratingCompeting</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
     <t>OONP41</t>
   </si>
   <si>
     <t>OOCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCompetingResponse</t>
-  </si>
-  <si>
     <t>OOCollaboratingCollaboratingCompeting</t>
   </si>
   <si>
-    <t>IPCCompetingCompetingResponse</t>
+    <t>NotPickedAccomodatingAccomodatingResponse</t>
   </si>
   <si>
     <t>OpinionRevealNegative</t>
@@ -566,43 +611,46 @@
     <t>OpinionRevealPositive</t>
   </si>
   <si>
-    <t>IPCCompetingCompeting2Response</t>
-  </si>
-  <si>
     <t>OpinionRevealPositiveQuestion</t>
   </si>
   <si>
+    <t>NotPickedAccomodatingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>PW</t>
   </si>
   <si>
-    <t>Neither</t>
-  </si>
-  <si>
     <t>PWAccomodating</t>
   </si>
   <si>
+    <t>NotPickedAccomodatingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
     <t>PWAvoiding</t>
   </si>
   <si>
     <t>PWCollaborating</t>
   </si>
   <si>
+    <t>NotPickedAvoidingAvoidingResponse</t>
+  </si>
+  <si>
     <t>PWCompeting</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
     <t>PWNP1</t>
   </si>
   <si>
     <t>PWAvoidingAvoiding</t>
   </si>
   <si>
+    <t>NotPickedAvoidingCompetingAvoidingResponse</t>
+  </si>
+  <si>
     <t>PWAvoidingCollaborating</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingCollaboratingAccomodatingResponse</t>
+    <t>NotPickedAvoidingCompetingCompetingResponse</t>
   </si>
   <si>
     <t>PWNP11</t>
@@ -611,12 +659,12 @@
     <t>PWAvoidingCollaboratingAvoiding</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
     <t>PWAvoidingCollaboratingCollaborating</t>
   </si>
   <si>
+    <t>NotPickedCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>Trasformational</t>
   </si>
   <si>
@@ -626,24 +674,24 @@
     <t>PWCompetingAccomodating</t>
   </si>
   <si>
-    <t>NotPickedAvoidingAvoidingResponse</t>
-  </si>
-  <si>
     <t>PWCompetingCompeting</t>
   </si>
   <si>
+    <t>NotPickedCollaboratingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>PWNP21</t>
   </si>
   <si>
     <t>PWCompetingAccomodatingAccomodating</t>
   </si>
   <si>
+    <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
     <t>PWCompetingAccomodatingCompeting</t>
   </si>
   <si>
-    <t>NotPickedAvoidingCompetingAvoidingResponse</t>
-  </si>
-  <si>
     <t>PWNP3</t>
   </si>
   <si>
@@ -653,7 +701,7 @@
     <t>PWAccomodatingCompeting</t>
   </si>
   <si>
-    <t>NotPickedAvoidingCompetingCompetingResponse</t>
+    <t>NotPickedCompetingAvoidingAvoidingResponse</t>
   </si>
   <si>
     <t>PWNP31</t>
@@ -662,18 +710,21 @@
     <t>PWAccomodatingCompetingAccomodating</t>
   </si>
   <si>
+    <t>NotPickedCompetingAvoidingCompetingResponse</t>
+  </si>
+  <si>
     <t>PWAccomodatingCompetingCompeting</t>
   </si>
   <si>
     <t>PWNP4</t>
   </si>
   <si>
+    <t>NotPickedCompetingCompetingResponse</t>
+  </si>
+  <si>
     <t>PWCollaboratingAvoiding</t>
   </si>
   <si>
-    <t>NotPickedCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
     <t>PWCollaboratingCollaborating</t>
   </si>
   <si>
@@ -683,61 +734,46 @@
     <t>PWCollaboratingCollaboratingAvoiding</t>
   </si>
   <si>
-    <t>NotPickedCollaboratingCollaboratingAccomodatingResponse</t>
+    <t>OOAccomodatingAccomodatingResponse</t>
   </si>
   <si>
     <t>PWCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
     <t>RecruitBody</t>
   </si>
   <si>
+    <t>OOAccomodatingAvoidingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>RecruitCharisma</t>
   </si>
   <si>
+    <t>OOAccomodatingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
     <t>RecruitPerception</t>
   </si>
   <si>
     <t>RecruitQuickness</t>
   </si>
   <si>
-    <t>NotPickedCompetingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
     <t>RecruitWillpower</t>
   </si>
   <si>
+    <t>OOAvoidingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>RecruitWisdom</t>
   </si>
   <si>
-    <t>NotPickedCompetingAvoidingCompetingResponse</t>
-  </si>
-  <si>
     <t>RoleReveal</t>
   </si>
   <si>
-    <t>NotPickedCompetingCompetingResponse</t>
+    <t>OOAvoidingAccomodatingAvoidingResponse</t>
   </si>
   <si>
     <t>StatReveal</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAvoidingResponse</t>
   </si>
   <si>
     <t>OOAvoidingAvoidingResponse</t>
@@ -942,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -961,6 +997,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1021,118 +1060,118 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
@@ -1140,203 +1179,203 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>33</v>
@@ -1344,16 +1383,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>33</v>
@@ -1361,84 +1400,84 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
@@ -1446,7 +1485,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>43</v>
@@ -1455,24 +1494,24 @@
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>33</v>
@@ -1480,16 +1519,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>33</v>
@@ -1497,33 +1536,33 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -1531,84 +1570,84 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>33</v>
@@ -1616,33 +1655,33 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>33</v>
@@ -1650,84 +1689,84 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>33</v>
@@ -1735,16 +1774,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>33</v>
@@ -1752,33 +1791,33 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>33</v>
@@ -1786,33 +1825,33 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>33</v>
@@ -1820,33 +1859,33 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>33</v>
@@ -1854,16 +1893,16 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>33</v>
@@ -1871,220 +1910,220 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>33</v>
@@ -2092,33 +2131,33 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>33</v>
@@ -2126,16 +2165,16 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>33</v>
@@ -2143,16 +2182,16 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>33</v>
@@ -2160,33 +2199,33 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>33</v>
@@ -2194,16 +2233,16 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>33</v>
@@ -2211,118 +2250,118 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>33</v>
@@ -2330,67 +2369,67 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>33</v>
@@ -2398,33 +2437,33 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>33</v>
@@ -2432,33 +2471,33 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>33</v>
@@ -2466,67 +2505,67 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>33</v>
@@ -2534,529 +2573,529 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123">
@@ -9262,7 +9301,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -9276,138 +9315,138 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -9415,2142 +9454,2142 @@
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>B32</f>
         <v>-</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>8</v>
+        <v>271</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138">

--- a/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
+++ b/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="320">
   <si>
     <t>Player Dialogs</t>
   </si>
@@ -38,58 +38,67 @@
     <t>Styles</t>
   </si>
   <si>
+    <t>IPC</t>
+  </si>
+  <si>
     <t>Agree</t>
   </si>
   <si>
-    <t>IPC</t>
+    <t>IPCAvoiding</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>IPCAvoiding</t>
-  </si>
-  <si>
     <t>Avoiding</t>
   </si>
   <si>
+    <t>IPCCompeting</t>
+  </si>
+  <si>
     <t>Disagree</t>
   </si>
   <si>
-    <t>IPCCompeting</t>
-  </si>
-  <si>
     <t>Competing</t>
   </si>
   <si>
+    <t>IPCAccomodating</t>
+  </si>
+  <si>
+    <t>Accomodating</t>
+  </si>
+  <si>
     <t>InterviewIntro</t>
   </si>
   <si>
-    <t>IPCAccomodating</t>
-  </si>
-  <si>
-    <t>Accomodating</t>
+    <t>IPCCollaborating</t>
+  </si>
+  <si>
+    <t>Collaborating</t>
+  </si>
+  <si>
+    <t>IPCNP1</t>
   </si>
   <si>
     <t>IPCNP5</t>
   </si>
   <si>
-    <t>IPCCollaborating</t>
-  </si>
-  <si>
-    <t>Collaborating</t>
-  </si>
-  <si>
-    <t>IPCNP1</t>
+    <t>IPCAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>Laissez-faire</t>
   </si>
   <si>
     <t>IPCNP6</t>
   </si>
   <si>
-    <t>IPCAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>Laissez-faire</t>
+    <t>IPCAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCNP11</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccomodatingAccomodating</t>
   </si>
   <si>
     <t>IPCAccomodatingAccomodating</t>
@@ -98,16 +107,19 @@
     <t>IPCNP51</t>
   </si>
   <si>
-    <t>IPCAvoidingAccomodating</t>
+    <t>Transformational</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccomodatingAvoiding</t>
   </si>
   <si>
     <t>IPCAccomodatingAccomodating2</t>
   </si>
   <si>
-    <t>IPCNP11</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccomodatingAccomodating</t>
+    <t>IPCNP2</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompeting</t>
   </si>
   <si>
     <t>IPCAccomodatingAccomodating2Response</t>
@@ -116,729 +128,810 @@
     <t>MoodChange(2)</t>
   </si>
   <si>
-    <t>Transformational</t>
-  </si>
-  <si>
     <t>IPCAccomodatingAccomodatingAccomodating</t>
   </si>
   <si>
-    <t>IPCAvoidingAccomodatingAvoiding</t>
-  </si>
-  <si>
     <t>IPCAccomodatingAccomodatingAccomodatingResponse</t>
   </si>
   <si>
+    <t>MoodChange(3), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>IPCNP21</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAccomodatingCompromising</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAccomodatingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(4), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCNP52</t>
+  </si>
+  <si>
+    <t>IPCNP22</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1)</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>IPCNP3</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting</t>
+  </si>
+  <si>
+    <t>MoodChange(-1), ManagerOpinionWorse</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCNP61</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCNP612</t>
+  </si>
+  <si>
+    <t>IPCNP31</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>MoodChange(5), ManagerOpinionAllCrewBetter</t>
+  </si>
+  <si>
+    <t>IPCNP311</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingCompromising</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingAccomodatingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(6), ManagerOpinionAllCrewBetter</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>Compromising</t>
+  </si>
+  <si>
+    <t>IPCNP611</t>
+  </si>
+  <si>
+    <t>IPCNP4</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting2</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(7), ManagerOpinionAllCrewBetter</t>
+  </si>
+  <si>
+    <t>IPCNP41</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCAccomodatingCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccomodatingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-1), ManagerOpinionMuchWorse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-2), ManagerOpinionMuchWorse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-3), ManagerOpinionWorse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-4), ManagerOpinionMuchWorse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-5), ManagerOpinionAllCrewWorse</t>
+  </si>
+  <si>
+    <t>Transactional</t>
+  </si>
+  <si>
+    <t>IPCNP7</t>
+  </si>
+  <si>
+    <t>IPCNP8</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>IPCNP71</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCNP72</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating2</t>
+  </si>
+  <si>
+    <t>IPCNP81</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating2Collaborating</t>
+  </si>
+  <si>
+    <t>IPCNP811</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaborating2Collaborating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>NotPicked</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP1</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP11</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingCompetingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
     <t>MoodChange(3)</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodatingCompromising</t>
-  </si>
-  <si>
-    <t>IPCNP2</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAccomodatingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompeting</t>
+    <t>NotPickedAvoidingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP2</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP21</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>MoodChange(5), ManagerOpinionAlCrewBetter</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedNP3</t>
+  </si>
+  <si>
+    <t>MoodChange(6), ManagerOpinionMuchBetter</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedNP31</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(7), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>MoodChange(6)</t>
+  </si>
+  <si>
+    <t>NotPickedNP4</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedNP41</t>
+  </si>
+  <si>
+    <t>MoodChange(2), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>OOAccomodating</t>
+  </si>
+  <si>
+    <t>OOAvoiding</t>
+  </si>
+  <si>
+    <t>OOCollaborating</t>
+  </si>
+  <si>
+    <t>OOCompeting</t>
+  </si>
+  <si>
+    <t>OONP1</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>OOAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>MoodChange(-4), ManagerOpinionWorse</t>
+  </si>
+  <si>
+    <t>OONP11</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAvoiding</t>
+  </si>
+  <si>
+    <t>MoodChange(-5)</t>
+  </si>
+  <si>
+    <t>OONP2</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaborating</t>
+  </si>
+  <si>
+    <t>OOCompetingCompeting</t>
+  </si>
+  <si>
+    <t>OONP21</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCompeting</t>
   </si>
   <si>
     <t>MoodChange(4)</t>
   </si>
   <si>
-    <t>IPCAccomodatingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCNP52</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(1)</t>
-  </si>
-  <si>
-    <t>IPCNP21</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingAvoidingAvoidingResponse</t>
+    <t>OONP3</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(6), ManagerOpinionBetter</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-2)</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoiding</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OONP31</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting2Response</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>MoodChange(-4)</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>OONP4</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>OONP41</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>MoodChange(2), ExpectedPosition</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegative</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeQuestion</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositive</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveQuestion</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PWAccomodating</t>
+  </si>
+  <si>
+    <t>MoodChange(5), ManagerOpinionMuchBetter</t>
+  </si>
+  <si>
+    <t>PWAvoiding</t>
+  </si>
+  <si>
+    <t>PWCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>PWCompeting</t>
+  </si>
+  <si>
+    <t>MoodChange(-2), ManagerOpinionWorse</t>
+  </si>
+  <si>
+    <t>PWNP1</t>
+  </si>
+  <si>
+    <t>PWAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingCompetingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaborating</t>
+  </si>
+  <si>
+    <t>PWNP11</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedAvoidingCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-5), ManagerOpinionMuchWorse</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>Trasformational</t>
+  </si>
+  <si>
+    <t>PWNP2</t>
+  </si>
+  <si>
+    <t>PWCompetingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(3), CausesSelectionAfter</t>
+  </si>
+  <si>
+    <t>PWCompetingCompeting</t>
+  </si>
+  <si>
+    <t>PWNP21</t>
+  </si>
+  <si>
+    <t>PWCompetingAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaboratingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>PWCompetingAccomodatingCompeting</t>
+  </si>
+  <si>
+    <t>MoodChange(5), CausesSelectionAfter</t>
+  </si>
+  <si>
+    <t>PWNP3</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>PWAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>MoodChange(6), WholeTeamChange</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompeting</t>
+  </si>
+  <si>
+    <t>PWNP31</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompetingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>PWNP4</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingCompetingResponse</t>
+  </si>
+  <si>
+    <t>PWCollaboratingAvoiding</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>PWNP41</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaboratingAvoiding</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>RecruitBody</t>
+  </si>
+  <si>
+    <t>RecruitCharisma</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(2), ImproveConflictOpinionGreatly</t>
+  </si>
+  <si>
+    <t>RecruitPerception</t>
+  </si>
+  <si>
+    <t>RecruitQuickness</t>
+  </si>
+  <si>
+    <t>RecruitWillpower</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1), ImproveConflictTeamOpinion</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>RecruitWisdom</t>
+  </si>
+  <si>
+    <t>RoleReveal</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>StatReveal</t>
+  </si>
+  <si>
+    <t>MoodChange(-1), ImproveConflictTeamOpinion</t>
+  </si>
+  <si>
+    <t>OOAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(6), ImproveConflictKnowledge</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCollaboratingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(2), ImproveConflictKnowledge</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OOCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeAnswer</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeHigh</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeNone</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveAnswer</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveHigh</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveNone</t>
+  </si>
+  <si>
+    <t>PostRaceEventStart</t>
+  </si>
+  <si>
+    <t>Race, Practice</t>
+  </si>
+  <si>
+    <t>PWAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>ManagerOpinionWorse</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompetingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1), ExpectedPositionAfter</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(-3), ManagerOpinionMuchWorse</t>
+  </si>
+  <si>
+    <t>PWAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingAvoidingResponse</t>
   </si>
   <si>
     <t>MoodChange(-1)</t>
   </si>
   <si>
-    <t>IPCAccomodatingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCNP61</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCNP612</t>
-  </si>
-  <si>
-    <t>IPCNP22</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(5)</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingCompromising</t>
-  </si>
-  <si>
-    <t>IPCNP3</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingAccomodatingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>MoodChange(6)</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCNP31</t>
-  </si>
-  <si>
-    <t>IPCNP611</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(7)</t>
-  </si>
-  <si>
-    <t>IPCNP311</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCAccomodatingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>Compromising</t>
-  </si>
-  <si>
-    <t>IPCNP4</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting2</t>
-  </si>
-  <si>
-    <t>IPCNP41</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccomodatingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(-2)</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(-3)</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingCompetingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(-4)</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>MoodChange(-5)</t>
-  </si>
-  <si>
-    <t>IPCNP7</t>
-  </si>
-  <si>
-    <t>IPCNP8</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>Transactional</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>IPCNP71</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCNP72</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating2</t>
-  </si>
-  <si>
-    <t>IPCNP81</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating2Collaborating</t>
-  </si>
-  <si>
-    <t>IPCNP811</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaborating2Collaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>NotPicked</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedNP1</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedNP11</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedNP2</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedNP21</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>NotPickedNP3</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedNP31</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedNP4</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
-  </si>
-  <si>
-    <t>NotPickedNP41</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>OOAccomodating</t>
-  </si>
-  <si>
-    <t>OOAvoiding</t>
-  </si>
-  <si>
-    <t>OOCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>OOCompeting</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OONP1</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodating</t>
-  </si>
-  <si>
-    <t>OOAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>OONP11</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>OONP2</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OOCompetingCompeting</t>
-  </si>
-  <si>
-    <t>OONP21</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>OONP3</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OONP31</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>OONP4</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting2Response</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>Neither</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>OONP41</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegative</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeQuestion</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositive</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveQuestion</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>PWAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>PWAvoiding</t>
-  </si>
-  <si>
-    <t>PWCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>PWCompeting</t>
-  </si>
-  <si>
-    <t>PWNP1</t>
-  </si>
-  <si>
-    <t>PWAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>PWNP11</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingAvoiding</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>Trasformational</t>
-  </si>
-  <si>
-    <t>PWNP2</t>
-  </si>
-  <si>
-    <t>PWCompetingAccomodating</t>
-  </si>
-  <si>
-    <t>PWCompetingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>PWNP21</t>
-  </si>
-  <si>
-    <t>PWCompetingAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>PWCompetingAccomodatingCompeting</t>
-  </si>
-  <si>
-    <t>PWNP3</t>
-  </si>
-  <si>
-    <t>PWAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>PWNP31</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompetingAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingCompetingResponse</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>PWNP4</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>PWCollaboratingAvoiding</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>PWNP41</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingAvoiding</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>RecruitBody</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>RecruitCharisma</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>RecruitPerception</t>
-  </si>
-  <si>
-    <t>RecruitQuickness</t>
-  </si>
-  <si>
-    <t>RecruitWillpower</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>RecruitWisdom</t>
-  </si>
-  <si>
-    <t>RoleReveal</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>StatReveal</t>
-  </si>
-  <si>
-    <t>OOAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCollaboratingResponse</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OOCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeAnswer</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeHigh</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeNone</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveAnswer</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveHigh</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveNone</t>
-  </si>
-  <si>
-    <t>PostRaceEventStart</t>
-  </si>
-  <si>
-    <t>Race, Practice</t>
-  </si>
-  <si>
-    <t>PWAccomodatingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompetingAccomodatingResponse</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>PWAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingAvoidingResponse</t>
-  </si>
-  <si>
     <t>PWAvoidingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>MoodChange(3), RevealTwoSkills</t>
+  </si>
+  <si>
     <t>PWCollaboratingAvoidingResponse</t>
   </si>
   <si>
@@ -848,7 +941,13 @@
     <t>PWCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>MoodChange(6), RevealFourSkills</t>
+  </si>
+  <si>
     <t>PWCompetingAccomodatingAccomodatingResponse</t>
+  </si>
+  <si>
+    <t>MoodChange(1), ExpectedPosition</t>
   </si>
   <si>
     <t>PWCompetingAccomodatingCompetingResponse</t>
@@ -1060,2042 +1159,2042 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123">
@@ -9266,7 +9365,8 @@
     <col customWidth="1" min="1" max="1" width="48.63"/>
     <col customWidth="1" min="2" max="2" width="13.25"/>
     <col customWidth="1" min="3" max="3" width="51.13"/>
-    <col customWidth="1" min="4" max="5" width="23.38"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
+    <col customWidth="1" min="5" max="5" width="38.0"/>
     <col customWidth="1" min="6" max="26" width="7.63"/>
   </cols>
   <sheetData>
@@ -9298,2298 +9398,2298 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>B32</f>
         <v>-</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138">

--- a/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
+++ b/stm-logic/PlayGen.RAGE.SportsTeamManager/PlayGen.RAGE.SportsTeamManager.Simulation/NPC Templates/Template.xlsx
@@ -15,14 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="319">
+  <si>
+    <t>Agent Dialogs</t>
+  </si>
   <si>
     <t>Player Dialogs</t>
   </si>
   <si>
-    <t>Agent Dialogs</t>
-  </si>
-  <si>
     <t>Current State</t>
   </si>
   <si>
@@ -56,12 +56,12 @@
     <t>IPCCompeting</t>
   </si>
   <si>
+    <t>Competing</t>
+  </si>
+  <si>
     <t>Disagree</t>
   </si>
   <si>
-    <t>Competing</t>
-  </si>
-  <si>
     <t>IPCAccomodating</t>
   </si>
   <si>
@@ -95,16 +95,19 @@
     <t>IPCAvoidingAccomodating</t>
   </si>
   <si>
+    <t>IPCAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>IPCNP51</t>
+  </si>
+  <si>
     <t>IPCNP11</t>
   </si>
   <si>
     <t>IPCAvoidingAccomodatingAccomodating</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCNP51</t>
+    <t>IPCAccomodatingAccomodating2</t>
   </si>
   <si>
     <t>Transformational</t>
@@ -113,7 +116,10 @@
     <t>IPCAvoidingAccomodatingAvoiding</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodating2</t>
+    <t>IPCAccomodatingAccomodating2Response</t>
+  </si>
+  <si>
+    <t>MoodChange(2)</t>
   </si>
   <si>
     <t>IPCNP2</t>
@@ -122,12 +128,6 @@
     <t>IPCAvoidingCompeting</t>
   </si>
   <si>
-    <t>IPCAccomodatingAccomodating2Response</t>
-  </si>
-  <si>
-    <t>MoodChange(2)</t>
-  </si>
-  <si>
     <t>IPCAccomodatingAccomodatingAccomodating</t>
   </si>
   <si>
@@ -140,34 +140,43 @@
     <t>IPCNP21</t>
   </si>
   <si>
+    <t>IPCAvoidingCompetingCompeting</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAccomodatingCompromising</t>
   </si>
   <si>
-    <t>IPCAvoidingCompetingCompeting</t>
-  </si>
-  <si>
     <t>IPCAccomodatingAccomodatingCompromisingResponse</t>
   </si>
   <si>
+    <t>IPCAvoidingCompetingAvoiding</t>
+  </si>
+  <si>
     <t>MoodChange(4), ManagerOpinionBetter</t>
   </si>
   <si>
+    <t>IPCNP22</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingAvoiding</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAvoiding</t>
   </si>
   <si>
-    <t>IPCAvoidingCompetingAvoiding</t>
-  </si>
-  <si>
     <t>IPCNP52</t>
   </si>
   <si>
-    <t>IPCNP22</t>
+    <t>IPCAvoidingAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>IPCNP3</t>
   </si>
   <si>
     <t>IPCAccomodatingAvoidingAccomodating</t>
   </si>
   <si>
-    <t>IPCAvoidingAvoidingAvoiding</t>
+    <t>IPCCompetingCompeting</t>
   </si>
   <si>
     <t>IPCAccomodatingAvoidingAccomodatingResponse</t>
@@ -176,31 +185,37 @@
     <t>MoodChange(1)</t>
   </si>
   <si>
-    <t>IPCAvoidingAvoidingCompeting</t>
+    <t>IPCCompetingCollaborating</t>
   </si>
   <si>
     <t>IPCAccomodatingAvoidingAvoiding</t>
   </si>
   <si>
+    <t>IPCNP31</t>
+  </si>
+  <si>
     <t>IPCAccomodatingAvoidingAvoidingResponse</t>
   </si>
   <si>
-    <t>IPCNP3</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting</t>
+    <t>IPCCompetingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>MoodChange(-1), ManagerOpinionWorse</t>
   </si>
   <si>
+    <t>IPCCompetingCollaboratingCompeting</t>
+  </si>
+  <si>
     <t>IPCAccomodatingCollaborating</t>
   </si>
   <si>
     <t>IPCNP61</t>
   </si>
   <si>
-    <t>IPCCompetingCollaborating</t>
+    <t>IPCNP311</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>IPCAccomodatingCollaboratingAccomodating</t>
@@ -209,31 +224,40 @@
     <t>IPCNP612</t>
   </si>
   <si>
-    <t>IPCNP31</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaborating</t>
+    <t>IPCCompetingCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>Compromising</t>
+  </si>
+  <si>
+    <t>IPCNP4</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoiding</t>
   </si>
   <si>
     <t>IPCAccomodatingCollaboratingAccomodatingAccomodating</t>
   </si>
   <si>
+    <t>IPCCompetingCompeting2</t>
+  </si>
+  <si>
     <t>IPCAccomodatingCollaboratingAccomodatingAccomodatingResponse</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCompeting</t>
-  </si>
-  <si>
     <t>MoodChange(5), ManagerOpinionAllCrewBetter</t>
   </si>
   <si>
-    <t>IPCNP311</t>
+    <t>IPCNP41</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingAvoiding</t>
   </si>
   <si>
     <t>IPCAccomodatingCollaboratingAccomodatingCompromising</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
+    <t>IPCCompetingAvoidingCompeting</t>
   </si>
   <si>
     <t>IPCAccomodatingCollaboratingAccomodatingCompromisingResponse</t>
@@ -242,51 +266,27 @@
     <t>MoodChange(6), ManagerOpinionAllCrewBetter</t>
   </si>
   <si>
-    <t>IPCCompetingCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
     <t>IPCAccomodatingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>Compromising</t>
-  </si>
-  <si>
     <t>IPCNP611</t>
   </si>
   <si>
-    <t>IPCNP4</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoiding</t>
-  </si>
-  <si>
     <t>IPCAccomodatingCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>IPCCompetingCompeting2</t>
-  </si>
-  <si>
     <t>IPCAccomodatingCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
     <t>MoodChange(7), ManagerOpinionAllCrewBetter</t>
   </si>
   <si>
-    <t>IPCNP41</t>
-  </si>
-  <si>
     <t>IPCAccomodatingCollaboratingCollaboratingCompromising</t>
   </si>
   <si>
-    <t>IPCCompetingAvoidingAvoiding</t>
-  </si>
-  <si>
     <t>IPCAccomodatingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
-    <t>IPCCompetingAvoidingCompeting</t>
-  </si>
-  <si>
     <t>IPCAvoidingAccomodatingAccomodatingResponse</t>
   </si>
   <si>
@@ -305,63 +305,63 @@
     <t>MoodChange(-2), ManagerOpinionMuchWorse</t>
   </si>
   <si>
+    <t>Transactional</t>
+  </si>
+  <si>
     <t>IPCAvoidingAvoidingAvoidingResponse</t>
   </si>
   <si>
     <t>MoodChange(-3), ManagerOpinionWorse</t>
   </si>
   <si>
+    <t>IPCNP7</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating</t>
+  </si>
+  <si>
     <t>IPCAvoidingAvoidingCompetingResponse</t>
   </si>
   <si>
+    <t>IPCCollaboratingCompeting</t>
+  </si>
+  <si>
     <t>MoodChange(-4), ManagerOpinionMuchWorse</t>
   </si>
   <si>
+    <t>IPCNP71</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
     <t>IPCAvoidingCompetingAvoidingResponse</t>
   </si>
   <si>
+    <t>IPCNP72</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCollaborating</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCompeting</t>
+  </si>
+  <si>
     <t>IPCAvoidingCompetingCompetingResponse</t>
   </si>
   <si>
+    <t>IPCNP8</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingAccomodating</t>
+  </si>
+  <si>
     <t>MoodChange(-5), ManagerOpinionAllCrewWorse</t>
   </si>
   <si>
-    <t>Transactional</t>
-  </si>
-  <si>
-    <t>IPCNP7</t>
-  </si>
-  <si>
-    <t>IPCNP8</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>IPCNP71</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCNP72</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCompeting</t>
-  </si>
-  <si>
     <t>IPCCollaboratingCollaborating2</t>
   </si>
   <si>
@@ -413,316 +413,385 @@
     <t>NotPickedAvoidingCompetingAvoiding</t>
   </si>
   <si>
+    <t>NotPickedAvoidingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP2</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingCompeting</t>
+  </si>
+  <si>
     <t>IPCCollaboratingAccomodatingResponse</t>
   </si>
   <si>
     <t>MoodChange(3)</t>
   </si>
   <si>
-    <t>NotPickedAvoidingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>NotPickedNP2</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingCompeting</t>
-  </si>
-  <si>
     <t>NotPickedNP21</t>
   </si>
   <si>
+    <t>NotPickedCompetingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>NotPickedNP3</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedNP31</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingAccomodating</t>
+  </si>
+  <si>
+    <t>NotPickedAccomodatingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedNP4</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingAccomodatingResponse</t>
   </si>
   <si>
-    <t>NotPickedCompetingAvoidingAvoiding</t>
+    <t>NotPickedCollaboratingAccomodating</t>
   </si>
   <si>
     <t>MoodChange(5), ManagerOpinionAlCrewBetter</t>
   </si>
   <si>
-    <t>NotPickedCompetingAvoidingCompeting</t>
+    <t>NotPickedCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedNP41</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
-    <t>NotPickedNP3</t>
+    <t>NotPickedCollaboratingCollaboratingAccomodating</t>
   </si>
   <si>
     <t>MoodChange(6), ManagerOpinionMuchBetter</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingAccomodating</t>
+    <t>NotPickedCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>OOAccomodating</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingCollaborating</t>
-  </si>
-  <si>
-    <t>NotPickedNP31</t>
-  </si>
-  <si>
-    <t>NotPickedAccomodatingCollaboratingAccomodating</t>
+    <t>OOAvoiding</t>
+  </si>
+  <si>
+    <t>OOCollaborating</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
+    <t>OOCompeting</t>
+  </si>
+  <si>
     <t>MoodChange(7), ManagerOpinionBetter</t>
   </si>
   <si>
+    <t>OONP1</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodating</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
-    <t>NotPickedAccomodatingCollaboratingCollaborating</t>
+    <t>OOAvoidingAvoiding</t>
   </si>
   <si>
     <t>MoodChange(6)</t>
   </si>
   <si>
-    <t>NotPickedNP4</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingAccomodating</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaborating</t>
+    <t>OONP11</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccomodatingAvoiding</t>
   </si>
   <si>
     <t>IPCCollaboratingCompetingCollaboratingResponse</t>
   </si>
   <si>
-    <t>NotPickedNP41</t>
+    <t>OONP2</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaborating</t>
   </si>
   <si>
     <t>MoodChange(2), ManagerOpinionBetter</t>
   </si>
   <si>
-    <t>NotPickedCollaboratingCollaboratingAccomodating</t>
+    <t>OOCompetingCompeting</t>
+  </si>
+  <si>
+    <t>OONP21</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>OONP3</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAccomodating</t>
   </si>
   <si>
     <t>IPCCollaboratingCompetingCompetingResponse</t>
   </si>
   <si>
-    <t>NotPickedCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>OOAccomodating</t>
-  </si>
-  <si>
-    <t>OOAvoiding</t>
-  </si>
-  <si>
-    <t>OOCollaborating</t>
-  </si>
-  <si>
-    <t>OOCompeting</t>
-  </si>
-  <si>
-    <t>OONP1</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodating</t>
+    <t>OOAccomodatingAvoiding</t>
+  </si>
+  <si>
+    <t>OONP31</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAccomodating</t>
+  </si>
+  <si>
+    <t>OOAccomodatingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>OONP4</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>OONP41</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>IPCCompetingAvoidingAvoidingResponse</t>
   </si>
   <si>
-    <t>OOAvoidingAvoiding</t>
+    <t>OOCollaboratingCollaboratingCompeting</t>
   </si>
   <si>
     <t>MoodChange(-4), ManagerOpinionWorse</t>
   </si>
   <si>
-    <t>OONP11</t>
-  </si>
-  <si>
-    <t>OOAvoidingAccomodatingAccomodating</t>
+    <t>OpinionRevealNegative</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeQuestion</t>
   </si>
   <si>
     <t>IPCCompetingAvoidingCompetingResponse</t>
   </si>
   <si>
-    <t>OOAvoidingAccomodatingAvoiding</t>
+    <t>OpinionRevealPositive</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveQuestion</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PWAccomodating</t>
+  </si>
+  <si>
+    <t>PWAvoiding</t>
   </si>
   <si>
     <t>MoodChange(-5)</t>
   </si>
   <si>
-    <t>OONP2</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>OOCompetingCompeting</t>
-  </si>
-  <si>
-    <t>OONP21</t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCollaborating</t>
+    <t>PWCollaborating</t>
+  </si>
+  <si>
+    <t>PWCompeting</t>
+  </si>
+  <si>
+    <t>PWNP1</t>
+  </si>
+  <si>
+    <t>PWAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaborating</t>
+  </si>
+  <si>
+    <t>PWNP11</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingAvoiding</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
-    <t>OOCompetingCollaboratingCompeting</t>
+    <t>PWAvoidingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>MoodChange(4)</t>
   </si>
   <si>
-    <t>OONP3</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAccomodating</t>
-  </si>
-  <si>
     <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
+    <t>PWNP2</t>
+  </si>
+  <si>
+    <t>PWCompetingAccomodating</t>
+  </si>
+  <si>
     <t>MoodChange(6), ManagerOpinionBetter</t>
   </si>
   <si>
+    <t>PWCompetingCompeting</t>
+  </si>
+  <si>
+    <t>PWNP21</t>
+  </si>
+  <si>
+    <t>PWCompetingAccomodatingAccomodating</t>
+  </si>
+  <si>
     <t>IPCCompetingCollaboratingCompetingResponse</t>
   </si>
   <si>
     <t>MoodChange(-2)</t>
   </si>
   <si>
-    <t>OOAccomodatingAvoiding</t>
+    <t>PWCompetingAccomodatingCompeting</t>
   </si>
   <si>
     <t>IPCCompetingCompetingResponse</t>
   </si>
   <si>
-    <t>OONP31</t>
-  </si>
-  <si>
-    <t>OOAccomodatingAvoidingAccomodating</t>
+    <t>PWNP3</t>
+  </si>
+  <si>
+    <t>PWAccomodatingAccomodating</t>
+  </si>
+  <si>
+    <t>PWAccomodatingCompeting</t>
   </si>
   <si>
     <t>IPCCompetingCompeting2Response</t>
   </si>
   <si>
-    <t>OOAccomodatingAvoidingAvoiding</t>
+    <t>PWNP31</t>
   </si>
   <si>
     <t>MoodChange(-4)</t>
   </si>
   <si>
+    <t>PWAccomodatingCompetingAccomodating</t>
+  </si>
+  <si>
     <t>Neither</t>
   </si>
   <si>
-    <t>OONP4</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>OONP41</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCollaborating</t>
+    <t>PWAccomodatingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>PWNP4</t>
+  </si>
+  <si>
+    <t>PWCollaboratingAvoiding</t>
   </si>
   <si>
     <t>NotPickedAccomodatingAccomodatingResponse</t>
   </si>
   <si>
-    <t>OOCollaboratingCollaboratingCompeting</t>
-  </si>
-  <si>
     <t>MoodChange(2), ExpectedPosition</t>
   </si>
   <si>
-    <t>OpinionRevealNegative</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeQuestion</t>
+    <t>PWCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>PWNP41</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaboratingAvoiding</t>
   </si>
   <si>
     <t>NotPickedAccomodatingCollaboratingAccomodatingResponse</t>
   </si>
   <si>
-    <t>OpinionRevealPositive</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveQuestion</t>
+    <t>PWCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
     <t>NotPickedAccomodatingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>PWAccomodating</t>
-  </si>
-  <si>
     <t>MoodChange(5), ManagerOpinionMuchBetter</t>
   </si>
   <si>
-    <t>PWAvoiding</t>
-  </si>
-  <si>
-    <t>PWCollaborating</t>
+    <t>RecruitBody</t>
+  </si>
+  <si>
+    <t>RecruitCharisma</t>
   </si>
   <si>
     <t>NotPickedAvoidingAvoidingResponse</t>
   </si>
   <si>
-    <t>PWCompeting</t>
-  </si>
-  <si>
     <t>MoodChange(-2), ManagerOpinionWorse</t>
   </si>
   <si>
-    <t>PWNP1</t>
-  </si>
-  <si>
-    <t>PWAvoidingAvoiding</t>
+    <t>RecruitPerception</t>
+  </si>
+  <si>
+    <t>RecruitQuickness</t>
   </si>
   <si>
     <t>NotPickedAvoidingCompetingAvoidingResponse</t>
   </si>
   <si>
-    <t>PWAvoidingCollaborating</t>
-  </si>
-  <si>
-    <t>PWNP11</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingAvoiding</t>
+    <t>RecruitWillpower</t>
+  </si>
+  <si>
+    <t>RecruitWisdom</t>
   </si>
   <si>
     <t>NotPickedAvoidingCompetingCompetingResponse</t>
   </si>
   <si>
+    <t>RoleReveal</t>
+  </si>
+  <si>
     <t>MoodChange(-5), ManagerOpinionMuchWorse</t>
   </si>
   <si>
-    <t>PWAvoidingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>Trasformational</t>
-  </si>
-  <si>
-    <t>PWNP2</t>
-  </si>
-  <si>
-    <t>PWCompetingAccomodating</t>
+    <t>StatReveal</t>
   </si>
   <si>
     <t>NotPickedCollaboratingAccomodatingResponse</t>
@@ -731,96 +800,33 @@
     <t>MoodChange(3), CausesSelectionAfter</t>
   </si>
   <si>
-    <t>PWCompetingCompeting</t>
-  </si>
-  <si>
-    <t>PWNP21</t>
-  </si>
-  <si>
-    <t>PWCompetingAccomodatingAccomodating</t>
-  </si>
-  <si>
     <t>NotPickedCollaboratingCollaboratingAccomodatingResponse</t>
   </si>
   <si>
-    <t>PWCompetingAccomodatingCompeting</t>
-  </si>
-  <si>
     <t>MoodChange(5), CausesSelectionAfter</t>
   </si>
   <si>
-    <t>PWNP3</t>
-  </si>
-  <si>
     <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
-    <t>PWAccomodatingAccomodating</t>
-  </si>
-  <si>
     <t>MoodChange(6), WholeTeamChange</t>
   </si>
   <si>
-    <t>PWAccomodatingCompeting</t>
-  </si>
-  <si>
-    <t>PWNP31</t>
-  </si>
-  <si>
-    <t>PWAccomodatingCompetingAccomodating</t>
-  </si>
-  <si>
     <t>NotPickedCompetingAvoidingAvoidingResponse</t>
   </si>
   <si>
-    <t>PWAccomodatingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>PWNP4</t>
-  </si>
-  <si>
     <t>NotPickedCompetingAvoidingCompetingResponse</t>
   </si>
   <si>
-    <t>PWCollaboratingAvoiding</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaborating</t>
-  </si>
-  <si>
     <t>NotPickedCompetingCompetingResponse</t>
   </si>
   <si>
-    <t>PWNP41</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingAvoiding</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>RecruitBody</t>
-  </si>
-  <si>
-    <t>RecruitCharisma</t>
-  </si>
-  <si>
     <t>OOAccomodatingAccomodatingResponse</t>
   </si>
   <si>
     <t>MoodChange(2), ImproveConflictOpinionGreatly</t>
   </si>
   <si>
-    <t>RecruitPerception</t>
-  </si>
-  <si>
-    <t>RecruitQuickness</t>
-  </si>
-  <si>
-    <t>RecruitWillpower</t>
-  </si>
-  <si>
     <t>OOAccomodatingAvoidingAccomodatingResponse</t>
   </si>
   <si>
@@ -833,16 +839,7 @@
     <t>OOAvoidingAccomodatingAccomodatingResponse</t>
   </si>
   <si>
-    <t>RecruitWisdom</t>
-  </si>
-  <si>
-    <t>RoleReveal</t>
-  </si>
-  <si>
     <t>OOAvoidingAccomodatingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>StatReveal</t>
   </si>
   <si>
     <t>MoodChange(-1), ImproveConflictTeamOpinion</t>
@@ -1133,7 +1130,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1185,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -1261,30 +1258,30 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
@@ -1295,16 +1292,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -1332,13 +1329,13 @@
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>23</v>
@@ -1349,10 +1346,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -1363,13 +1360,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1380,16 +1377,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>23</v>
@@ -1397,16 +1394,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>23</v>
@@ -1414,13 +1411,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>19</v>
@@ -1431,13 +1428,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -1448,16 +1445,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>23</v>
@@ -1465,47 +1462,47 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -1516,16 +1513,16 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>23</v>
@@ -1533,13 +1530,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -1550,16 +1547,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>23</v>
@@ -1570,16 +1567,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1587,10 +1584,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>37</v>
@@ -1613,35 +1610,35 @@
         <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
@@ -1652,19 +1649,19 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1672,10 +1669,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>16</v>
@@ -1689,10 +1686,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>19</v>
@@ -1703,13 +1700,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>19</v>
@@ -1720,13 +1717,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>16</v>
@@ -1737,81 +1734,81 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
@@ -1822,16 +1819,16 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
@@ -1839,67 +1836,67 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>23</v>
@@ -1907,24 +1904,24 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>115</v>
@@ -1953,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -1987,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -2001,10 +1998,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -2069,7 +2066,7 @@
         <v>126</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
@@ -2103,7 +2100,7 @@
         <v>129</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>10</v>
@@ -2131,13 +2128,13 @@
         <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>23</v>
@@ -2145,13 +2142,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>11</v>
@@ -2162,16 +2159,16 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>23</v>
@@ -2182,10 +2179,10 @@
         <v>138</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>11</v>
@@ -2199,13 +2196,13 @@
         <v>138</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>23</v>
@@ -2213,30 +2210,30 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>19</v>
@@ -2247,64 +2244,64 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>19</v>
@@ -2315,47 +2312,47 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>16</v>
@@ -2366,13 +2363,13 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>11</v>
@@ -2383,13 +2380,13 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>19</v>
@@ -2400,16 +2397,16 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>10</v>
@@ -2417,13 +2414,13 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>16</v>
@@ -2434,13 +2431,13 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>11</v>
@@ -2451,30 +2448,30 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>11</v>
@@ -2485,13 +2482,13 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>19</v>
@@ -2502,16 +2499,16 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>10</v>
@@ -2519,33 +2516,33 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>23</v>
@@ -2553,30 +2550,30 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>11</v>
@@ -2587,30 +2584,30 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>11</v>
@@ -2621,13 +2618,13 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>19</v>
@@ -2638,16 +2635,16 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>23</v>
@@ -2655,33 +2652,33 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>23</v>
@@ -2689,47 +2686,47 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>16</v>
@@ -2740,13 +2737,13 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>11</v>
@@ -2757,13 +2754,13 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>19</v>
@@ -2774,16 +2771,16 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>10</v>
@@ -2791,13 +2788,13 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>11</v>
@@ -2808,13 +2805,13 @@
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>19</v>
@@ -2825,13 +2822,13 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>11</v>
@@ -2842,30 +2839,30 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>233</v>
+      <c r="E102" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>16</v>
@@ -2876,16 +2873,16 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>23</v>
@@ -2893,33 +2890,33 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>233</v>
+      <c r="E105" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>23</v>
@@ -2927,33 +2924,33 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>233</v>
+      <c r="E107" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>10</v>
@@ -2961,33 +2958,33 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>233</v>
+      <c r="E109" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>23</v>
@@ -2995,13 +2992,13 @@
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>11</v>
@@ -3012,13 +3009,13 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>19</v>
@@ -3029,13 +3026,13 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>11</v>
@@ -3046,155 +3043,155 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>233</v>
+      <c r="E114" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123">
@@ -9372,7 +9369,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9415,19 +9412,19 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -9483,13 +9480,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -9500,19 +9497,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -9534,7 +9531,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -9546,18 +9543,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -9568,47 +9565,47 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
@@ -9619,13 +9616,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>10</v>
@@ -9636,47 +9633,47 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -9687,36 +9684,36 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -9741,10 +9738,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>10</v>
@@ -9758,10 +9755,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
@@ -9772,7 +9769,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -9826,10 +9823,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -9840,41 +9837,41 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>40</v>
@@ -9891,36 +9888,36 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -9928,10 +9925,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
@@ -9945,10 +9942,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -9959,31 +9956,31 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>B32</f>
         <v>-</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -10034,30 +10031,30 @@
         <v>10</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -10068,13 +10065,13 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
@@ -10085,41 +10082,41 @@
         <v>10</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
@@ -10130,30 +10127,30 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>10</v>
@@ -10167,10 +10164,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>10</v>
@@ -10184,10 +10181,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>10</v>
@@ -10198,13 +10195,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>10</v>
@@ -10215,47 +10212,47 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>10</v>
@@ -10266,13 +10263,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>10</v>
@@ -10283,104 +10280,104 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61">
@@ -10388,10 +10385,10 @@
         <v>123</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>10</v>
@@ -10402,30 +10399,30 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>10</v>
@@ -10436,36 +10433,36 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66">
@@ -10493,13 +10490,13 @@
         <v>10</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68">
@@ -10527,30 +10524,30 @@
         <v>10</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71">
@@ -10558,10 +10555,10 @@
         <v>125</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>10</v>
@@ -10572,30 +10569,30 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>10</v>
@@ -10606,36 +10603,36 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76">
@@ -10643,10 +10640,10 @@
         <v>126</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>10</v>
@@ -10657,7 +10654,7 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>138</v>
@@ -10674,64 +10671,64 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>10</v>
@@ -10742,30 +10739,30 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>10</v>
@@ -10776,30 +10773,30 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>10</v>
@@ -10810,13 +10807,13 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>10</v>
@@ -10827,13 +10824,13 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>10</v>
@@ -10844,24 +10841,24 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>10</v>
@@ -10873,35 +10870,35 @@
         <v>10</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>10</v>
@@ -10912,13 +10909,13 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>10</v>
@@ -10929,64 +10926,64 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>10</v>
@@ -10997,13 +10994,13 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>10</v>
@@ -11014,160 +11011,160 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>122</v>
@@ -11179,46 +11176,46 @@
         <v>122</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>7</v>
@@ -11230,18 +11227,18 @@
         <v>7</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>10</v>
@@ -11252,81 +11249,81 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>10</v>
@@ -11337,30 +11334,30 @@
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>10</v>
@@ -11371,47 +11368,47 @@
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>10</v>
@@ -11422,30 +11419,30 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>10</v>
@@ -11456,47 +11453,47 @@
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>10</v>
@@ -11507,13 +11504,13 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>10</v>
@@ -11524,172 +11521,172 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138">
